--- a/resources/experiment 1/predictions/single/LinearRegression/Cost.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/Cost.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>777223.0967557975</v>
+        <v>777223.0967557976</v>
       </c>
       <c r="B2" t="n">
         <v>524712.0630338964</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42878.87510613864</v>
+        <v>42878.87510613876</v>
       </c>
       <c r="B4" t="n">
-        <v>41715.74464729388</v>
+        <v>41715.74464729393</v>
       </c>
       <c r="C4" t="n">
         <v>64488.99958517309</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67277.49038825859</v>
+        <v>67277.49038825871</v>
       </c>
       <c r="B5" t="n">
-        <v>55949.29716984439</v>
+        <v>55949.29716984433</v>
       </c>
       <c r="C5" t="n">
         <v>97918.41459871712</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>468735.7550125579</v>
+        <v>468735.755012558</v>
       </c>
       <c r="B6" t="n">
         <v>317127.8486918514</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>595336.5618872226</v>
+        <v>595336.5618872225</v>
       </c>
       <c r="B7" t="n">
         <v>411502.8412663898</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>376575.8943102071</v>
+        <v>376575.8943102072</v>
       </c>
       <c r="B9" t="n">
         <v>262329.4020303729</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>929033.5810912909</v>
+        <v>929033.5810912908</v>
       </c>
       <c r="B11" t="n">
         <v>632116.4986494688</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1084899.376320329</v>
+        <v>1084899.376320328</v>
       </c>
       <c r="B14" t="n">
         <v>733500.3868574582</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>248352.9630781248</v>
+        <v>248352.9630781249</v>
       </c>
       <c r="B15" t="n">
         <v>170362.6284188676</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>467113.6306551402</v>
+        <v>467113.6306551403</v>
       </c>
       <c r="B16" t="n">
         <v>319536.0676548845</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>805677.0229314616</v>
+        <v>805677.0229314617</v>
       </c>
       <c r="B17" t="n">
         <v>532925.068148864</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>44500.99946355633</v>
+        <v>44500.99946355645</v>
       </c>
       <c r="B18" t="n">
-        <v>39307.52568426071</v>
+        <v>39307.52568426076</v>
       </c>
       <c r="C18" t="n">
         <v>72866.58160321671</v>
@@ -650,18 +650,18 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>649811.227702424</v>
+        <v>649811.2277024242</v>
       </c>
       <c r="B20" t="n">
         <v>431541.1799408746</v>
       </c>
       <c r="C20" t="n">
-        <v>916624.017041839</v>
+        <v>916624.0170418388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>403407.6961284534</v>
+        <v>403407.6961284536</v>
       </c>
       <c r="B21" t="n">
         <v>272950.6261083736</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>342134.9481378932</v>
+        <v>342134.9481378935</v>
       </c>
       <c r="B23" t="n">
         <v>222752.8561173129</v>
@@ -708,7 +708,7 @@
         <v>286849.2201439828</v>
       </c>
       <c r="B25" t="n">
-        <v>203918.6269243446</v>
+        <v>203918.6269243447</v>
       </c>
       <c r="C25" t="n">
         <v>399217.6228915171</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>406651.9448432887</v>
+        <v>406651.944843289</v>
       </c>
       <c r="B26" t="n">
         <v>268134.1881823072</v>
@@ -733,7 +733,7 @@
         <v>1007708.381420499</v>
       </c>
       <c r="C27" t="n">
-        <v>2097993.485477367</v>
+        <v>2097993.485477368</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>432672.6844828264</v>
+        <v>432672.6844828266</v>
       </c>
       <c r="B29" t="n">
-        <v>279959.5217418246</v>
+        <v>279959.5217418245</v>
       </c>
       <c r="C29" t="n">
         <v>627891.181776104</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>714328.2244078197</v>
+        <v>714328.2244078198</v>
       </c>
       <c r="B30" t="n">
         <v>476922.5120058689</v>
@@ -807,7 +807,7 @@
         <v>1048836.305790597</v>
       </c>
       <c r="B34" t="n">
-        <v>696332.0599074314</v>
+        <v>696332.0599074312</v>
       </c>
       <c r="C34" t="n">
         <v>1466154.444887246</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>557651.3670000733</v>
+        <v>557651.3670000734</v>
       </c>
       <c r="B35" t="n">
         <v>376742.7332793961</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>594525.4997085137</v>
+        <v>594525.4997085136</v>
       </c>
       <c r="B36" t="n">
         <v>412706.9507479063</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>495567.5568308042</v>
+        <v>495567.5568308044</v>
       </c>
       <c r="B37" t="n">
         <v>327749.072769852</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>893781.5727402682</v>
+        <v>893781.5727402683</v>
       </c>
       <c r="B39" t="n">
         <v>593744.0622179253</v>
@@ -870,24 +870,24 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>223954.3477960048</v>
+        <v>223954.3477960051</v>
       </c>
       <c r="B40" t="n">
         <v>156129.0758963171</v>
       </c>
       <c r="C40" t="n">
-        <v>321097.8011558231</v>
+        <v>321097.8011558232</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>506420.9498997071</v>
+        <v>506420.949899707</v>
       </c>
       <c r="B41" t="n">
         <v>351887.956678845</v>
       </c>
       <c r="C41" t="n">
-        <v>700516.8311843174</v>
+        <v>700516.8311843172</v>
       </c>
     </row>
     <row r="42">
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>715139.2865865285</v>
+        <v>715139.2865865286</v>
       </c>
       <c r="B43" t="n">
-        <v>475718.4025243524</v>
+        <v>475718.4025243523</v>
       </c>
       <c r="C43" t="n">
         <v>1007310.211804598</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>658231.4342352004</v>
+        <v>658231.4342352003</v>
       </c>
       <c r="B44" t="n">
         <v>459292.3922944173</v>
@@ -928,7 +928,7 @@
         <v>1204702.101019634</v>
       </c>
       <c r="B45" t="n">
-        <v>797715.9481154208</v>
+        <v>797715.9481154206</v>
       </c>
       <c r="C45" t="n">
         <v>1685145.04043533</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>906257.0901665888</v>
+        <v>906257.0901665887</v>
       </c>
       <c r="B46" t="n">
         <v>615474.7271638851</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>804054.8985740439</v>
+        <v>804054.898574044</v>
       </c>
       <c r="B48" t="n">
         <v>535333.2871118971</v>
@@ -969,24 +969,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983.4249149453</v>
+        <v>130983.4249149454</v>
       </c>
       <c r="B49" t="n">
-        <v>102534.7387163552</v>
+        <v>102534.7387163553</v>
       </c>
       <c r="C49" t="n">
-        <v>180227.0273434328</v>
+        <v>180227.0273434329</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>493945.4324733865</v>
+        <v>493945.4324733867</v>
       </c>
       <c r="B50" t="n">
         <v>330157.2917328852</v>
       </c>
       <c r="C50" t="n">
-        <v>697633.4214937545</v>
+        <v>697633.4214937546</v>
       </c>
     </row>
     <row r="51">
@@ -1002,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>812475.1051068202</v>
+        <v>812475.1051068201</v>
       </c>
       <c r="B52" t="n">
         <v>563084.4994654398</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>896214.7592763947</v>
+        <v>896214.7592763948</v>
       </c>
       <c r="B53" t="n">
-        <v>590131.7337733756</v>
+        <v>590131.7337733755</v>
       </c>
       <c r="C53" t="n">
         <v>1263919.013375248</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>249975.0874355425</v>
+        <v>249975.0874355426</v>
       </c>
       <c r="B54" t="n">
-        <v>167954.4094558345</v>
+        <v>167954.4094558344</v>
       </c>
       <c r="C54" t="n">
         <v>362904.7981874106</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>404218.7583071623</v>
+        <v>404218.7583071624</v>
       </c>
       <c r="B55" t="n">
         <v>271746.516626857</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>992739.5156179776</v>
+        <v>992739.5156179775</v>
       </c>
       <c r="B56" t="n">
         <v>678701.9401959797</v>
@@ -1060,7 +1060,7 @@
         <v>1057256.512323373</v>
       </c>
       <c r="B57" t="n">
-        <v>724083.2722609739</v>
+        <v>724083.272260974</v>
       </c>
       <c r="C57" t="n">
         <v>1448093.899532699</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>496378.6190095131</v>
+        <v>496378.6190095132</v>
       </c>
       <c r="B58" t="n">
         <v>326544.9632883354</v>
       </c>
       <c r="C58" t="n">
-        <v>710199.7945208198</v>
+        <v>710199.7945208199</v>
       </c>
     </row>
     <row r="59">
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>339701.7616017667</v>
+        <v>339701.7616017669</v>
       </c>
       <c r="B60" t="n">
-        <v>226365.1845618627</v>
+        <v>226365.1845618626</v>
       </c>
       <c r="C60" t="n">
         <v>487020.4079637139</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>929844.6432699998</v>
+        <v>929844.6432699997</v>
       </c>
       <c r="B62" t="n">
         <v>630912.3891679521</v>
@@ -1126,7 +1126,7 @@
         <v>1356512.585355128</v>
       </c>
       <c r="B63" t="n">
-        <v>905120.383730993</v>
+        <v>905120.3837309929</v>
       </c>
       <c r="C63" t="n">
         <v>1883191.680938305</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>340512.8237804756</v>
+        <v>340512.8237804758</v>
       </c>
       <c r="B64" t="n">
-        <v>225161.0750803461</v>
+        <v>225161.075080346</v>
       </c>
       <c r="C64" t="n">
         <v>491209.1989727356</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>967529.8381571489</v>
+        <v>967529.8381571488</v>
       </c>
       <c r="B65" t="n">
         <v>665672.4971549457</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>312058.8976048115</v>
+        <v>312058.8976048116</v>
       </c>
       <c r="B68" t="n">
         <v>216948.0699653785</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>224765.4099747137</v>
+        <v>224765.4099747139</v>
       </c>
       <c r="B70" t="n">
         <v>154924.9664148006</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>350555.1546706696</v>
+        <v>350555.1546706695</v>
       </c>
       <c r="B71" t="n">
         <v>250504.0684708556</v>
       </c>
       <c r="C71" t="n">
-        <v>481526.2356362329</v>
+        <v>481526.235636233</v>
       </c>
     </row>
     <row r="72">
